--- a/Excel/Test data for CRM.xlsx
+++ b/Excel/Test data for CRM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15315" windowHeight="6060" activeTab="3"/>
+    <workbookView windowWidth="17175" windowHeight="2190" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Departments" sheetId="1" r:id="rId1"/>
@@ -583,8 +583,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="0.00_ "/>
   </numFmts>
@@ -644,52 +644,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF2C3241"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -703,37 +665,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -756,17 +688,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -779,8 +710,77 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -795,7 +795,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -807,67 +885,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -885,55 +927,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -945,13 +939,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -963,19 +969,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -994,54 +994,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1076,6 +1028,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1086,20 +1077,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1109,134 +1109,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1270,16 +1270,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1613,11 +1610,11 @@
     <col min="2" max="2" width="163.571428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="13" customFormat="1" spans="1:2">
-      <c r="A1" s="13" t="s">
+    <row r="1" s="12" customFormat="1" spans="1:2">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1625,7 +1622,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1633,7 +1630,7 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1641,7 +1638,7 @@
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1649,7 +1646,7 @@
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3673,7 +3670,7 @@
       <c r="F2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="11" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3690,7 +3687,7 @@
       <c r="F3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="11" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3707,7 +3704,7 @@
       <c r="F4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="11" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3784,8 +3781,8 @@
   <sheetPr/>
   <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3"/>
@@ -3912,7 +3909,7 @@
       <c r="E4" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="10" t="s">
         <v>55</v>
       </c>
       <c r="I4" s="2" t="s">
